--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://btgroupcloud-my.sharepoint.com/personal/immy_kassim_openreach_co_uk/Documents/Desktop/Openreach Notes/year 1/incident tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_F25DC773A252ABDACC104855711C54CC5BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD2BE146-1723-437A-A1A9-9AD0ED24BD57}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_F25DC773A252ABDACC104855711C54CC5BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ACC20F2-1988-4E1B-A70C-CF9BBDC30B56}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="2020" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1810" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,10 +96,10 @@
     <t>2024-06-14</t>
   </si>
   <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
     <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>2023-07-13</t>
   </si>
 </sst>
 </file>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,7 +549,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://btgroupcloud-my.sharepoint.com/personal/immy_kassim_openreach_co_uk/Documents/Desktop/Openreach Notes/year 1/incident tracker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://btgroupcloud-my.sharepoint.com/personal/immy_kassim_openreach_co_uk/Documents/Desktop/Openreach Notes/year 1/incident tracker/alias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_F25DC773A252ABDACC104855711C54CC5BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ACC20F2-1988-4E1B-A70C-CF9BBDC30B56}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_F25DC773A252ABDACC104855711C54CC5BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{485D680C-3984-42F5-92A6-E70012A53F6A}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="1810" windowWidth="14400" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>System Name</t>
   </si>
@@ -34,42 +34,6 @@
   </si>
   <si>
     <t>Issue</t>
-  </si>
-  <si>
-    <t>Nokia AMS</t>
-  </si>
-  <si>
-    <t>Viavi Fusion</t>
-  </si>
-  <si>
-    <t>Adtran MCP</t>
-  </si>
-  <si>
-    <t>Adtran FSP</t>
-  </si>
-  <si>
-    <t>Tyco EvoTAM</t>
-  </si>
-  <si>
-    <t>Ribbon EOPS</t>
-  </si>
-  <si>
-    <t>Adtran ENC</t>
-  </si>
-  <si>
-    <t>Huawei NCE</t>
-  </si>
-  <si>
-    <t>EXFO FMS</t>
-  </si>
-  <si>
-    <t>Viavi ONMSi</t>
-  </si>
-  <si>
-    <t>LTS-Tollgrade</t>
-  </si>
-  <si>
-    <t>Utel LLU-TAM</t>
   </si>
   <si>
     <t>2023-12-10</t>
@@ -450,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,99 +437,99 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
